--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/importing_port_details.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/importing_port_details.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,111 +1653,91 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="B22" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="C22" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="D22" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="E22" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="F22" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="G22" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>RMB</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>12342</v>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>197</v>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="B23" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="C23" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="D23" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="E23" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="F23" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="G23" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>RMB</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>12342</v>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
-        <v>197</v>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
     </row>
@@ -1928,56 +1908,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="B27" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="C27" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="D27" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="E27" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="F27" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="G27" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>RMB</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>12342</v>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="n">
-        <v>197</v>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
     </row>
@@ -3026,6 +2996,171 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B47" t="n">
+        <v>42500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42500</v>
+      </c>
+      <c r="D47" t="n">
+        <v>42500</v>
+      </c>
+      <c r="E47" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F47" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G47" t="n">
+        <v>42500</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>RMB</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>12342</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>197</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B48" t="n">
+        <v>42500</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42500</v>
+      </c>
+      <c r="D48" t="n">
+        <v>42500</v>
+      </c>
+      <c r="E48" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F48" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G48" t="n">
+        <v>42500</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>RMB</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>12342</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>197</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B49" t="n">
+        <v>42500</v>
+      </c>
+      <c r="C49" t="n">
+        <v>42500</v>
+      </c>
+      <c r="D49" t="n">
+        <v>42500</v>
+      </c>
+      <c r="E49" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F49" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G49" t="n">
+        <v>42500</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>RMB</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>12342</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>197</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
